--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed1/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.587500000000003</v>
+        <v>-7.695800000000004</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.633700000000001</v>
+        <v>-7.664</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.815700000000003</v>
+        <v>-7.690600000000002</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.424100000000003</v>
+        <v>-8.298600000000002</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.121999999999995</v>
+        <v>-8.048599999999995</v>
       </c>
     </row>
     <row r="17">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.218199999999994</v>
+        <v>-8.576899999999995</v>
       </c>
     </row>
     <row r="21">
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.009199999999995</v>
+        <v>-8.152799999999996</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.086199999999996</v>
+        <v>-8.370699999999998</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.325400000000001</v>
+        <v>-7.247300000000005</v>
       </c>
     </row>
     <row r="30">
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.909099999999998</v>
+        <v>-6.999199999999995</v>
       </c>
     </row>
     <row r="31">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.476699999999994</v>
+        <v>-7.504099999999994</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.412099999999992</v>
+        <v>-8.735699999999994</v>
       </c>
     </row>
     <row r="41">
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.570999999999994</v>
+        <v>-7.479999999999998</v>
       </c>
     </row>
     <row r="47">
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.288799999999997</v>
+        <v>-8.1488</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.803500000000006</v>
+        <v>-7.754000000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.120999999999997</v>
+        <v>-8.075699999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.259399999999998</v>
+        <v>-8.239299999999998</v>
       </c>
     </row>
     <row r="60">
@@ -1306,7 +1306,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.920899999999996</v>
+        <v>-8.509099999999995</v>
       </c>
     </row>
     <row r="63">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.986499999999999</v>
+        <v>-6.930799999999998</v>
       </c>
     </row>
     <row r="67">
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.815799999999996</v>
+        <v>-7.736299999999989</v>
       </c>
     </row>
     <row r="74">
@@ -1474,7 +1474,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.3032</v>
+        <v>-8.289300000000008</v>
       </c>
     </row>
     <row r="75">
@@ -1516,7 +1516,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.565600000000001</v>
+        <v>-6.136000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1726,7 +1726,7 @@
         <v>-9.789999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.696700000000005</v>
+        <v>-6.245700000000006</v>
       </c>
     </row>
     <row r="93">
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.8289</v>
+        <v>-7.795100000000002</v>
       </c>
     </row>
     <row r="101">
